--- a/Zad6/analiza_statystyczna.xlsx
+++ b/Zad6/analiza_statystyczna.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumenty\STUDIA\Informatyka II rok (2019-2020)\sem4\AISD\VI - Algorytmy sortowania\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konra\Desktop\Algorytmy\Zad6\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A71942-E77C-4152-8100-84094A957B40}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="8385" yWindow="0" windowWidth="20280" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -56,9 +57,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -274,10 +275,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -286,10 +287,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -298,10 +299,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -320,15 +321,7 @@
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -362,15 +355,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
@@ -380,7 +374,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -394,15 +387,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="pl-PL"/>
@@ -431,21 +425,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -534,21 +520,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent2">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -637,21 +615,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent3">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -740,21 +710,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent4">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -843,21 +805,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent5">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -946,21 +900,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:glow rad="63500">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="25000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -1042,8 +988,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="315"/>
-        <c:overlap val="-40"/>
+        <c:gapWidth val="199"/>
         <c:axId val="1327407216"/>
         <c:axId val="1327410544"/>
       </c:barChart>
@@ -1054,39 +999,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1095,10 +1021,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1128,28 +1055,31 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1168,8 +1098,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1194,7 +1125,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1210,8 +1140,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="75000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1229,14 +1160,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1304,30 +1232,43 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="213">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="212">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
-  <cs:chartArea>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1336,14 +1277,11 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
+        <a:schemeClr val="bg1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1358,8 +1296,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1369,16 +1308,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="15000"/>
-        <a:lumOff val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
     </cs:spPr>
@@ -1388,123 +1327,69 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="139700">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="14000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:lumMod val="60000"/>
-          <a:lumOff val="40000"/>
-        </a:schemeClr>
+        <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -1528,16 +1413,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1549,22 +1435,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1578,11 +1464,12 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1596,8 +1483,9 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1621,23 +1509,12 @@
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -1651,25 +1528,12 @@
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-                <a:alpha val="25000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -1684,15 +1548,85 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1702,64 +1636,9 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1770,12 +1649,13 @@
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1784,59 +1664,58 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="25400" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="50000"/>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
   </cs:upBar>
   <cs:valueAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1869,7 +1748,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Wykres 2"/>
+        <xdr:cNvPr id="3" name="Wykres 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2149,21 +2034,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" customWidth="1"/>
-    <col min="2" max="2" width="21.77734375" style="1" customWidth="1"/>
-    <col min="3" max="8" width="25.77734375" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="1" customWidth="1"/>
+    <col min="3" max="8" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C1" s="17" t="s">
         <v>8</v>
       </c>
@@ -2173,7 +2058,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="19"/>
     </row>
-    <row r="2" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
@@ -2196,7 +2081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B3" s="5">
         <v>10</v>
       </c>
@@ -2219,7 +2104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B4" s="9">
         <v>100</v>
       </c>
@@ -2242,7 +2127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B5" s="9">
         <v>500</v>
       </c>
@@ -2265,7 +2150,7 @@
         <v>9.9778175354003906E-4</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B6" s="9">
         <v>1000</v>
       </c>
@@ -2288,7 +2173,7 @@
         <v>2.9914379119872999E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B7" s="9">
         <v>100000</v>
       </c>
@@ -2311,7 +2196,7 @@
         <v>0.29820370674133301</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="18" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B8" s="9">
         <v>500000</v>
       </c>
@@ -2334,7 +2219,7 @@
         <v>2.0814504623413002</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="13">
         <v>1000000</v>
       </c>
@@ -2357,28 +2242,28 @@
         <v>3.9873178005218501</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18"/>
     </row>
   </sheetData>
